--- a/biology/Botanique/Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture/Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture.xlsx
+++ b/biology/Botanique/Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture/Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Office_national_interprofessionnel_des_fruits,_des_l%C3%A9gumes,_des_vins_et_de_l%27horticulture</t>
+          <t>Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Office national interprofessionnel des fruits, des légumes, des vins et de l'horticulture (aussi connu sous le nom de Viniflhor) était un office agricole français, créé par décret du 30 décembre 2005 à partir de l'Onivins et l'Oniflhor. Ses activités sont, depuis le 1er avril 2009, reprises par FranceAgriMer[1]. Comme son nom l'indique, cet office intervenait dans les filières maraîchères, viticoles et arboricoles (à l'exception de l'olivier).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Office national interprofessionnel des fruits, des légumes, des vins et de l'horticulture (aussi connu sous le nom de Viniflhor) était un office agricole français, créé par décret du 30 décembre 2005 à partir de l'Onivins et l'Oniflhor. Ses activités sont, depuis le 1er avril 2009, reprises par FranceAgriMer. Comme son nom l'indique, cet office intervenait dans les filières maraîchères, viticoles et arboricoles (à l'exception de l'olivier).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office_national_interprofessionnel_des_fruits,_des_l%C3%A9gumes,_des_vins_et_de_l%27horticulture</t>
+          <t>Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Etudes et statistiques sur les filières et les marchés
 Promotion des filières
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Office_national_interprofessionnel_des_fruits,_des_l%C3%A9gumes,_des_vins_et_de_l%27horticulture</t>
+          <t>Office_national_interprofessionnel_des_fruits,_des_légumes,_des_vins_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Organisation et moyens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">500 agents dont 200 au siège, à Montreuil (Seine-Saint-Denis)
 9 délégations régionales
